--- a/data/trans_bre/POLIPATOLOGIA_5-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_5-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,09</t>
+          <t>-0,49; 3,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,55</t>
+          <t>3,09; 8,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 9,58</t>
+          <t>4,07; 9,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 9,57</t>
+          <t>2,52; 9,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 189,75</t>
+          <t>-19,76; 181,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,02; 295,27</t>
+          <t>61,34; 299,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,2; 298,31</t>
+          <t>69,0; 303,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,96; 108,67</t>
+          <t>24,12; 117,88</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,37</t>
+          <t>0,32; 4,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,75</t>
+          <t>3,36; 7,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,86</t>
+          <t>3,72; 8,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,54; 13,39</t>
+          <t>6,57; 13,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,31; 154,67</t>
+          <t>4,06; 143,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,85; 272,59</t>
+          <t>72,57; 277,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>84,79; 323,23</t>
+          <t>92,27; 329,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>76,29; 378,82</t>
+          <t>78,04; 348,6</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 9,4</t>
+          <t>4,01; 9,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,85</t>
+          <t>2,87; 7,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,93</t>
+          <t>2,82; 7,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,01; 57,76</t>
+          <t>6,03; 55,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>78,53; 384,43</t>
+          <t>75,75; 372,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,69; 273,53</t>
+          <t>53,41; 285,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>62,34; 320,89</t>
+          <t>65,18; 325,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>77,3; 938,9</t>
+          <t>74,94; 925,06</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,21</t>
+          <t>1,55; 5,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 9,67</t>
+          <t>4,89; 9,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 9,7</t>
+          <t>4,94; 9,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 11,51</t>
+          <t>5,04; 11,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,8; 175,08</t>
+          <t>32,79; 183,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,52; 331,3</t>
+          <t>92,63; 328,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>105,58; 354,95</t>
+          <t>107,23; 343,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,6; 155,16</t>
+          <t>54,4; 151,8</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,42</t>
+          <t>2,26; 4,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 7,36</t>
+          <t>4,85; 7,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,56</t>
+          <t>5,12; 7,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,5; 27,08</t>
+          <t>7,47; 27,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,27; 145,6</t>
+          <t>59,86; 150,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>110,21; 221,93</t>
+          <t>110,47; 214,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>128,79; 250,31</t>
+          <t>127,29; 242,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>88,81; 399,21</t>
+          <t>86,67; 371,67</t>
         </is>
       </c>
     </row>
